--- a/erp/src/main/webapp/attachment/OA.xlsx
+++ b/erp/src/main/webapp/attachment/OA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fangwei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\erp\src\main\webapp\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8991,6 +8991,295 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="70" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="71" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="74" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="78" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="79" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="79" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="78" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="55" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9018,10 +9307,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9043,108 +9328,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -9176,6 +9359,164 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="22" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="23" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="50" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="35" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="50" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="46" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="48" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="59" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="36" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="38" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="37" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9187,12 +9528,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -9208,14 +9543,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="46" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="48" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9223,148 +9550,116 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="22" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="23" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="50" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="35" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="50" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="59" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="36" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="38" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="37" xfId="1879" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="74" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="67" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9415,301 +9710,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="70" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="71" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="71" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="74" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="74" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="67" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="78" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="79" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="79" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="78" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="55" fillId="29" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1954">
@@ -12778,7 +12778,7 @@
   <dimension ref="A1:HH784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="16.5"/>
@@ -12801,154 +12801,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36.75" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
       <c r="A2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
       <c r="G2" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
       <c r="P2" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="244"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
       <c r="P3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="244"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
       <c r="G4" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="197" t="s">
+      <c r="H4" s="241"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="198"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="247"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1">
       <c r="A5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
       <c r="G5" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="247"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="201" t="s">
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="202" t="s">
+      <c r="P6" s="249"/>
+      <c r="Q6" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="202"/>
+      <c r="R6" s="226"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" customHeight="1">
       <c r="A7" s="109" t="s">
@@ -12969,10 +12969,10 @@
       <c r="N7" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="227"/>
+      <c r="Q7" s="227"/>
+      <c r="R7" s="227"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1">
       <c r="A8" s="111"/>
@@ -12989,10 +12989,10 @@
       <c r="L8" s="114"/>
       <c r="M8" s="114"/>
       <c r="N8" s="112"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="227"/>
+      <c r="R8" s="227"/>
     </row>
     <row r="9" spans="1:18" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="115"/>
@@ -13012,10 +13012,10 @@
         <f ca="1">IF(INDIRECT("A"&amp;ROW())&lt;&gt;"",SUM(INDIRECT("B"&amp;ROW()):INDIRECT("M"&amp;ROW())),"")</f>
         <v/>
       </c>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="227"/>
+      <c r="Q9" s="227"/>
+      <c r="R9" s="227"/>
     </row>
     <row r="10" spans="1:18" ht="20.25" customHeight="1">
       <c r="A10" s="115"/>
@@ -13035,10 +13035,10 @@
         <f ca="1">IF(INDIRECT("A"&amp;ROW())&lt;&gt;"",SUM(INDIRECT("B"&amp;ROW()):INDIRECT("M"&amp;ROW())),"")</f>
         <v/>
       </c>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="227"/>
+      <c r="Q10" s="227"/>
+      <c r="R10" s="227"/>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1">
       <c r="A11" s="115"/>
@@ -13058,88 +13058,88 @@
         <f ca="1">IF(INDIRECT("A"&amp;ROW())&lt;&gt;"",SUM(INDIRECT("B"&amp;ROW()):INDIRECT("M"&amp;ROW())),"")</f>
         <v/>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="227"/>
+      <c r="Q11" s="227"/>
+      <c r="R11" s="227"/>
     </row>
     <row r="12" spans="1:18" ht="20.25" customHeight="1">
       <c r="A12" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="210"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="236"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="227"/>
+      <c r="Q12" s="227"/>
+      <c r="R12" s="227"/>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1">
       <c r="A13" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="207" t="s">
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="231"/>
+      <c r="O13" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="209"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="232"/>
+      <c r="R13" s="233"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="207"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1">
       <c r="A15" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="169" t="s">
         <v>64</v>
       </c>
@@ -13149,15 +13149,15 @@
       <c r="G15" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="213" t="s">
+      <c r="H15" s="225" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
       <c r="O15" s="168" t="s">
         <v>154</v>
       </c>
@@ -13165,504 +13165,474 @@
         <f>IF(Q4="样衣打版","剪版用量","订单数量")</f>
         <v>订单数量</v>
       </c>
-      <c r="Q15" s="213" t="s">
+      <c r="Q15" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="213"/>
+      <c r="R15" s="225"/>
     </row>
     <row r="16" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A16" s="118">
-        <v>1</v>
-      </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="215"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="222"/>
       <c r="E16" s="119"/>
       <c r="F16" s="118"/>
       <c r="G16" s="118"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
       <c r="O16" s="167"/>
       <c r="P16" s="118"/>
-      <c r="Q16" s="214"/>
-      <c r="R16" s="215"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
     </row>
     <row r="17" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A17" s="171">
-        <v>2</v>
-      </c>
-      <c r="B17" s="214"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="215"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="222"/>
       <c r="E17" s="118"/>
       <c r="F17" s="118"/>
       <c r="G17" s="118"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
       <c r="O17" s="167"/>
       <c r="P17" s="118"/>
-      <c r="Q17" s="214"/>
-      <c r="R17" s="215"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
     </row>
     <row r="18" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A18" s="171">
-        <v>3</v>
-      </c>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="215"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="222"/>
       <c r="E18" s="118"/>
       <c r="F18" s="118"/>
       <c r="G18" s="118"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
-      <c r="Q18" s="214"/>
-      <c r="R18" s="215"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
     </row>
     <row r="19" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A19" s="171">
-        <v>4</v>
-      </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="222"/>
       <c r="E19" s="118"/>
       <c r="F19" s="118"/>
       <c r="G19" s="118"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="215"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
     </row>
     <row r="20" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A20" s="171">
-        <v>5</v>
-      </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="222"/>
       <c r="E20" s="118"/>
       <c r="F20" s="118"/>
       <c r="G20" s="118"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="216"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
-      <c r="Q20" s="214"/>
-      <c r="R20" s="215"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
     </row>
     <row r="21" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A21" s="171">
-        <v>6</v>
-      </c>
-      <c r="B21" s="214"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="222"/>
       <c r="E21" s="118"/>
       <c r="F21" s="118"/>
       <c r="G21" s="118"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="216"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="215"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
     </row>
     <row r="22" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A22" s="171">
-        <v>7</v>
-      </c>
-      <c r="B22" s="214"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="215"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="222"/>
       <c r="E22" s="118"/>
       <c r="F22" s="118"/>
       <c r="G22" s="118"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
-      <c r="Q22" s="214"/>
-      <c r="R22" s="215"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
     </row>
     <row r="23" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A23" s="171">
-        <v>8</v>
-      </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="222"/>
       <c r="E23" s="118"/>
       <c r="F23" s="118"/>
       <c r="G23" s="118"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
-      <c r="Q23" s="214"/>
-      <c r="R23" s="215"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
     </row>
     <row r="24" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A24" s="171">
-        <v>9</v>
-      </c>
-      <c r="B24" s="214"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="215"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="222"/>
       <c r="E24" s="118"/>
       <c r="F24" s="118"/>
       <c r="G24" s="118"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
-      <c r="Q24" s="214"/>
-      <c r="R24" s="215"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
     </row>
     <row r="25" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A25" s="171">
-        <v>10</v>
-      </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="118"/>
       <c r="F25" s="118"/>
       <c r="G25" s="118"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
-      <c r="L25" s="216"/>
-      <c r="M25" s="216"/>
-      <c r="N25" s="216"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
-      <c r="Q25" s="214"/>
-      <c r="R25" s="215"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
     </row>
     <row r="26" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A26" s="171">
-        <v>11</v>
-      </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="215"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="222"/>
       <c r="E26" s="120"/>
       <c r="F26" s="120"/>
       <c r="G26" s="120"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="216"/>
-      <c r="M26" s="216"/>
-      <c r="N26" s="216"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
-      <c r="Q26" s="215"/>
-      <c r="R26" s="215"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="222"/>
     </row>
     <row r="27" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A27" s="171">
-        <v>12</v>
-      </c>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="215"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="222"/>
       <c r="E27" s="120"/>
       <c r="F27" s="120"/>
       <c r="G27" s="120"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
-      <c r="L27" s="216"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="216"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
       <c r="O27" s="120"/>
       <c r="P27" s="120"/>
-      <c r="Q27" s="215"/>
-      <c r="R27" s="215"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="222"/>
     </row>
     <row r="28" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A28" s="171">
-        <v>13</v>
-      </c>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="222"/>
       <c r="E28" s="120"/>
       <c r="F28" s="120"/>
       <c r="G28" s="120"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="216"/>
-      <c r="N28" s="216"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
       <c r="O28" s="120"/>
       <c r="P28" s="120"/>
-      <c r="Q28" s="215"/>
-      <c r="R28" s="215"/>
+      <c r="Q28" s="222"/>
+      <c r="R28" s="222"/>
     </row>
     <row r="29" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A29" s="171">
-        <v>14</v>
-      </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="215"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="222"/>
       <c r="E29" s="120"/>
       <c r="F29" s="120"/>
       <c r="G29" s="120"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="216"/>
-      <c r="M29" s="216"/>
-      <c r="N29" s="216"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
-      <c r="Q29" s="215"/>
-      <c r="R29" s="215"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="222"/>
     </row>
     <row r="30" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A30" s="171">
-        <v>15</v>
-      </c>
-      <c r="B30" s="214"/>
-      <c r="C30" s="214"/>
-      <c r="D30" s="215"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="222"/>
       <c r="E30" s="120"/>
       <c r="F30" s="120"/>
       <c r="G30" s="120"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="216"/>
-      <c r="N30" s="216"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
       <c r="O30" s="120"/>
       <c r="P30" s="120"/>
-      <c r="Q30" s="215"/>
-      <c r="R30" s="215"/>
+      <c r="Q30" s="222"/>
+      <c r="R30" s="222"/>
     </row>
     <row r="31" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="245"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="245"/>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="245"/>
     </row>
     <row r="32" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A32" s="175"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="177"/>
+      <c r="A32" s="250"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="251"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="251"/>
+      <c r="R32" s="252"/>
     </row>
     <row r="33" spans="1:18" ht="24" customHeight="1">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="178"/>
-      <c r="O33" s="178"/>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="179"/>
+      <c r="A33" s="253"/>
+      <c r="B33" s="253"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="253"/>
+      <c r="M33" s="253"/>
+      <c r="N33" s="253"/>
+      <c r="O33" s="253"/>
+      <c r="P33" s="253"/>
+      <c r="Q33" s="253"/>
+      <c r="R33" s="254"/>
     </row>
     <row r="34" spans="1:18" ht="24" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="179"/>
+      <c r="A34" s="253"/>
+      <c r="B34" s="253"/>
+      <c r="C34" s="253"/>
+      <c r="D34" s="253"/>
+      <c r="E34" s="253"/>
+      <c r="F34" s="253"/>
+      <c r="G34" s="253"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="253"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="253"/>
+      <c r="O34" s="253"/>
+      <c r="P34" s="253"/>
+      <c r="Q34" s="253"/>
+      <c r="R34" s="254"/>
     </row>
     <row r="35" spans="1:18" ht="24" customHeight="1">
-      <c r="A35" s="178"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="179"/>
+      <c r="A35" s="253"/>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="253"/>
+      <c r="E35" s="253"/>
+      <c r="F35" s="253"/>
+      <c r="G35" s="253"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="253"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="253"/>
+      <c r="M35" s="253"/>
+      <c r="N35" s="253"/>
+      <c r="O35" s="253"/>
+      <c r="P35" s="253"/>
+      <c r="Q35" s="253"/>
+      <c r="R35" s="254"/>
     </row>
     <row r="36" spans="1:18" ht="24" customHeight="1">
-      <c r="A36" s="178"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="179"/>
+      <c r="A36" s="253"/>
+      <c r="B36" s="253"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="253"/>
+      <c r="F36" s="253"/>
+      <c r="G36" s="253"/>
+      <c r="H36" s="253"/>
+      <c r="I36" s="253"/>
+      <c r="J36" s="253"/>
+      <c r="K36" s="253"/>
+      <c r="L36" s="253"/>
+      <c r="M36" s="253"/>
+      <c r="N36" s="253"/>
+      <c r="O36" s="253"/>
+      <c r="P36" s="253"/>
+      <c r="Q36" s="253"/>
+      <c r="R36" s="254"/>
     </row>
     <row r="37" spans="1:18" ht="24" customHeight="1">
-      <c r="A37" s="180"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="181"/>
+      <c r="A37" s="255"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
+      <c r="E37" s="255"/>
+      <c r="F37" s="255"/>
+      <c r="G37" s="255"/>
+      <c r="H37" s="255"/>
+      <c r="I37" s="255"/>
+      <c r="J37" s="255"/>
+      <c r="K37" s="255"/>
+      <c r="L37" s="255"/>
+      <c r="M37" s="255"/>
+      <c r="N37" s="255"/>
+      <c r="O37" s="255"/>
+      <c r="P37" s="255"/>
+      <c r="Q37" s="255"/>
+      <c r="R37" s="256"/>
     </row>
     <row r="38" spans="1:18" ht="24" customHeight="1">
-      <c r="A38" s="182" t="s">
+      <c r="A38" s="245" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="182"/>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="245"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="245"/>
+      <c r="G38" s="245"/>
+      <c r="H38" s="245"/>
+      <c r="I38" s="245"/>
+      <c r="J38" s="245"/>
+      <c r="K38" s="245"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="245"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245"/>
     </row>
     <row r="39" spans="1:18" ht="24" customHeight="1">
       <c r="A39" s="137" t="s">
@@ -13780,49 +13750,49 @@
       <c r="A44" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="185"/>
-      <c r="M44" s="185"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="185"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185"/>
+      <c r="B44" s="257"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="259"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="259"/>
+      <c r="K44" s="259"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="259"/>
+      <c r="N44" s="259"/>
+      <c r="O44" s="259"/>
+      <c r="P44" s="259"/>
+      <c r="Q44" s="259"/>
+      <c r="R44" s="259"/>
     </row>
     <row r="45" spans="1:18" ht="24" customHeight="1">
       <c r="A45" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="261"/>
       <c r="G45" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="188"/>
-      <c r="K45" s="188"/>
-      <c r="L45" s="188"/>
-      <c r="M45" s="188"/>
-      <c r="N45" s="188"/>
-      <c r="O45" s="188"/>
+      <c r="H45" s="262"/>
+      <c r="I45" s="262"/>
+      <c r="J45" s="262"/>
+      <c r="K45" s="262"/>
+      <c r="L45" s="262"/>
+      <c r="M45" s="262"/>
+      <c r="N45" s="262"/>
+      <c r="O45" s="262"/>
       <c r="P45" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
+      <c r="Q45" s="262"/>
+      <c r="R45" s="262"/>
     </row>
     <row r="46" spans="1:18" ht="24" customHeight="1">
       <c r="A46" s="13"/>
@@ -27868,62 +27838,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="78">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O7:P12"/>
-    <mergeCell ref="Q7:R12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="A32:R37"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="Q45:R45"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:O2"/>
@@ -27940,12 +27860,62 @@
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A32:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O7:P12"/>
+    <mergeCell ref="Q7:R12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="Q30:R30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="3">
@@ -27974,7 +27944,7 @@
       <selection activeCell="G16" sqref="G16:J16"/>
       <selection pane="topRight" activeCell="G16" sqref="G16:J16"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16:J16"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
@@ -28059,85 +28029,85 @@
       <c r="A2" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
       <c r="D2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
       <c r="H2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
       <c r="P2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="267"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="267"/>
       <c r="W2" s="76"/>
       <c r="Y2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
+      <c r="Z2" s="271"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="271"/>
       <c r="AI2" s="71"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A3" s="219"/>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="223" t="s">
+      <c r="A3" s="265"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="223"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="217" t="s">
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="269"/>
+      <c r="V3" s="269"/>
+      <c r="W3" s="269"/>
+      <c r="X3" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="217"/>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="218"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="263"/>
+      <c r="AC3" s="263"/>
+      <c r="AD3" s="263"/>
+      <c r="AE3" s="263"/>
+      <c r="AF3" s="263"/>
+      <c r="AG3" s="263"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
       <c r="AJ3" s="25" t="s">
         <v>97</v>
       </c>
@@ -29124,58 +29094,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="272" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
       <c r="P1" s="139"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
       <c r="A2" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="271"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
       <c r="E2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="272" t="s">
+      <c r="F2" s="274"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="273"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="277"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="279"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="282"/>
       <c r="P2" s="140"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1">
       <c r="A3" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="264"/>
-      <c r="D3" s="265"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="285"/>
       <c r="E3" s="153" t="s">
         <v>21</v>
       </c>
@@ -29185,330 +29155,330 @@
       <c r="G3" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="266" t="s">
+      <c r="H3" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="267"/>
-      <c r="J3" s="266" t="s">
+      <c r="I3" s="287"/>
+      <c r="J3" s="286" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="268"/>
-      <c r="O3" s="267"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="288"/>
+      <c r="N3" s="288"/>
+      <c r="O3" s="287"/>
       <c r="P3" s="141"/>
     </row>
     <row r="4" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="131"/>
-      <c r="B4" s="251"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="253"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="291"/>
       <c r="E4" s="131"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="294"/>
+      <c r="O4" s="294"/>
       <c r="P4" s="142"/>
     </row>
     <row r="5" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="174"/>
-      <c r="B5" s="251"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="253"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="291"/>
       <c r="E5" s="131"/>
       <c r="F5" s="131"/>
       <c r="G5" s="131"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="294"/>
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
       <c r="P5" s="142"/>
     </row>
     <row r="6" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="174"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="291"/>
       <c r="E6" s="131"/>
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
+      <c r="N6" s="294"/>
+      <c r="O6" s="294"/>
       <c r="P6" s="142"/>
     </row>
     <row r="7" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="174"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="253"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="291"/>
       <c r="E7" s="131"/>
       <c r="F7" s="131"/>
       <c r="G7" s="131"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="260"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="294"/>
       <c r="P7" s="142"/>
     </row>
     <row r="8" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="253"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="291"/>
       <c r="E8" s="131"/>
       <c r="F8" s="131"/>
       <c r="G8" s="131"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="294"/>
       <c r="P8" s="142"/>
     </row>
     <row r="9" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="174"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="253"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="291"/>
       <c r="E9" s="131"/>
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="256"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="256"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
       <c r="P9" s="142"/>
     </row>
     <row r="10" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="251"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="253"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="291"/>
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="256"/>
-      <c r="O10" s="256"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
       <c r="P10" s="142"/>
     </row>
     <row r="11" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="174"/>
-      <c r="B11" s="251"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="253"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="291"/>
       <c r="E11" s="131"/>
       <c r="F11" s="131"/>
       <c r="G11" s="131"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="293"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
       <c r="P11" s="142"/>
     </row>
     <row r="12" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="291"/>
       <c r="E12" s="131"/>
       <c r="F12" s="131"/>
       <c r="G12" s="131"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="260"/>
+      <c r="K12" s="260"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="294"/>
       <c r="P12" s="142"/>
     </row>
     <row r="13" spans="1:16" s="63" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="291"/>
       <c r="E13" s="131"/>
       <c r="F13" s="131"/>
       <c r="G13" s="131"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="294"/>
       <c r="P13" s="142"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="251"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="253"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="291"/>
       <c r="E14" s="131"/>
       <c r="F14" s="131"/>
       <c r="G14" s="131"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="293"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
+      <c r="O14" s="294"/>
       <c r="P14" s="142"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="291"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
       <c r="G15" s="156"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="294"/>
       <c r="P15" s="142"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="251"/>
-      <c r="C16" s="252"/>
-      <c r="D16" s="253"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="291"/>
       <c r="E16" s="155"/>
       <c r="F16" s="155"/>
       <c r="G16" s="156"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
       <c r="P16" s="142"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="251"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="253"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="291"/>
       <c r="E17" s="155"/>
       <c r="F17" s="155"/>
       <c r="G17" s="156"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="294"/>
+      <c r="M17" s="294"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="294"/>
       <c r="P17" s="142"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="251"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="253"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="291"/>
       <c r="E18" s="155"/>
       <c r="F18" s="155"/>
       <c r="G18" s="157"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
       <c r="P18" s="142"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="257" t="s">
+      <c r="A19" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="257"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="257"/>
-      <c r="F19" s="257"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
       <c r="G19" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="254"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="258" t="s">
+      <c r="H19" s="292"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="296" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="259"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="262"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="299"/>
+      <c r="O19" s="300"/>
       <c r="P19" s="104"/>
     </row>
     <row r="20" spans="1:19" ht="26.25" customHeight="1">
       <c r="A20" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="292"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="292"/>
-      <c r="E20" s="292"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="292"/>
-      <c r="H20" s="292"/>
-      <c r="I20" s="292"/>
-      <c r="J20" s="292"/>
-      <c r="K20" s="292"/>
-      <c r="L20" s="292"/>
-      <c r="M20" s="292"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
       <c r="N20" s="159" t="s">
         <v>166</v>
       </c>
@@ -29785,23 +29755,23 @@
       <c r="P32" s="146"/>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A33" s="239" t="s">
+      <c r="A33" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="240"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="239"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="240"/>
-      <c r="M33" s="240"/>
-      <c r="N33" s="240"/>
-      <c r="O33" s="241"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="301"/>
+      <c r="I33" s="258"/>
+      <c r="J33" s="302"/>
+      <c r="K33" s="302"/>
+      <c r="L33" s="302"/>
+      <c r="M33" s="302"/>
+      <c r="N33" s="302"/>
+      <c r="O33" s="303"/>
       <c r="P33" s="147"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="3"/>
@@ -29809,23 +29779,23 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="143.25" customHeight="1">
-      <c r="A34" s="244" t="s">
+      <c r="A34" s="306" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="245"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="242"/>
-      <c r="J34" s="242"/>
-      <c r="K34" s="242"/>
-      <c r="L34" s="242"/>
-      <c r="M34" s="242"/>
-      <c r="N34" s="242"/>
-      <c r="O34" s="243"/>
+      <c r="B34" s="307"/>
+      <c r="C34" s="307"/>
+      <c r="D34" s="307"/>
+      <c r="E34" s="307"/>
+      <c r="F34" s="307"/>
+      <c r="G34" s="307"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="304"/>
+      <c r="J34" s="304"/>
+      <c r="K34" s="304"/>
+      <c r="L34" s="304"/>
+      <c r="M34" s="304"/>
+      <c r="N34" s="304"/>
+      <c r="O34" s="305"/>
       <c r="P34" s="147"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="3"/>
@@ -29833,23 +29803,23 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="90.75" customHeight="1">
-      <c r="A35" s="244" t="s">
+      <c r="A35" s="306" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="235"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="235"/>
-      <c r="H35" s="235"/>
-      <c r="I35" s="235"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="235"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="235"/>
-      <c r="O35" s="236"/>
+      <c r="B35" s="308"/>
+      <c r="C35" s="308"/>
+      <c r="D35" s="308"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="308"/>
+      <c r="G35" s="308"/>
+      <c r="H35" s="308"/>
+      <c r="I35" s="308"/>
+      <c r="J35" s="308"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="308"/>
+      <c r="M35" s="308"/>
+      <c r="N35" s="308"/>
+      <c r="O35" s="309"/>
       <c r="P35" s="148"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="3"/>
@@ -29857,21 +29827,21 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="408.95" customHeight="1">
-      <c r="A36" s="244"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
-      <c r="G36" s="246"/>
-      <c r="H36" s="246"/>
-      <c r="I36" s="246"/>
-      <c r="J36" s="246"/>
-      <c r="K36" s="246"/>
-      <c r="L36" s="246"/>
-      <c r="M36" s="246"/>
-      <c r="N36" s="246"/>
-      <c r="O36" s="247"/>
+      <c r="A36" s="306"/>
+      <c r="B36" s="310"/>
+      <c r="C36" s="310"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="310"/>
+      <c r="I36" s="310"/>
+      <c r="J36" s="310"/>
+      <c r="K36" s="310"/>
+      <c r="L36" s="310"/>
+      <c r="M36" s="310"/>
+      <c r="N36" s="310"/>
+      <c r="O36" s="311"/>
       <c r="P36" s="149"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="3"/>
@@ -29879,21 +29849,21 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="155.1" customHeight="1">
-      <c r="A37" s="248"/>
-      <c r="B37" s="249"/>
-      <c r="C37" s="249"/>
-      <c r="D37" s="249"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-      <c r="H37" s="249"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="249"/>
-      <c r="K37" s="249"/>
-      <c r="L37" s="249"/>
-      <c r="M37" s="249"/>
-      <c r="N37" s="249"/>
-      <c r="O37" s="250"/>
+      <c r="A37" s="312"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="313"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="313"/>
+      <c r="I37" s="313"/>
+      <c r="J37" s="313"/>
+      <c r="K37" s="313"/>
+      <c r="L37" s="313"/>
+      <c r="M37" s="313"/>
+      <c r="N37" s="313"/>
+      <c r="O37" s="314"/>
       <c r="P37" s="149"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="3"/>
@@ -29901,23 +29871,23 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="234" t="s">
+      <c r="A38" s="321" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="235"/>
-      <c r="C38" s="235"/>
-      <c r="D38" s="235"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="235"/>
-      <c r="H38" s="235"/>
-      <c r="I38" s="235"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="235"/>
-      <c r="L38" s="235"/>
-      <c r="M38" s="235"/>
-      <c r="N38" s="235"/>
-      <c r="O38" s="236"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="308"/>
+      <c r="D38" s="308"/>
+      <c r="E38" s="308"/>
+      <c r="F38" s="308"/>
+      <c r="G38" s="308"/>
+      <c r="H38" s="308"/>
+      <c r="I38" s="308"/>
+      <c r="J38" s="308"/>
+      <c r="K38" s="308"/>
+      <c r="L38" s="308"/>
+      <c r="M38" s="308"/>
+      <c r="N38" s="308"/>
+      <c r="O38" s="309"/>
       <c r="P38" s="148"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="3"/>
@@ -29928,20 +29898,20 @@
       <c r="A39" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="237"/>
-      <c r="C39" s="237"/>
-      <c r="D39" s="237"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="238"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="238"/>
-      <c r="I39" s="238"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="238"/>
-      <c r="M39" s="238"/>
-      <c r="N39" s="238"/>
-      <c r="O39" s="238"/>
+      <c r="B39" s="322"/>
+      <c r="C39" s="322"/>
+      <c r="D39" s="322"/>
+      <c r="E39" s="323"/>
+      <c r="F39" s="323"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="323"/>
+      <c r="I39" s="323"/>
+      <c r="J39" s="323"/>
+      <c r="K39" s="323"/>
+      <c r="L39" s="323"/>
+      <c r="M39" s="323"/>
+      <c r="N39" s="323"/>
+      <c r="O39" s="323"/>
       <c r="P39" s="148"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="3"/>
@@ -29952,20 +29922,20 @@
       <c r="A40" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="237"/>
-      <c r="C40" s="237"/>
-      <c r="D40" s="237"/>
-      <c r="E40" s="238"/>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
-      <c r="I40" s="238"/>
-      <c r="J40" s="238"/>
-      <c r="K40" s="238"/>
-      <c r="L40" s="238"/>
-      <c r="M40" s="238"/>
-      <c r="N40" s="238"/>
-      <c r="O40" s="238"/>
+      <c r="B40" s="322"/>
+      <c r="C40" s="322"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="323"/>
+      <c r="F40" s="323"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="323"/>
+      <c r="I40" s="323"/>
+      <c r="J40" s="323"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="323"/>
+      <c r="M40" s="323"/>
+      <c r="N40" s="323"/>
+      <c r="O40" s="323"/>
       <c r="P40" s="148"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="3"/>
@@ -29976,22 +29946,22 @@
       <c r="A41" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="237" t="s">
+      <c r="B41" s="322" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="237"/>
-      <c r="D41" s="237"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="238"/>
-      <c r="H41" s="238"/>
-      <c r="I41" s="238"/>
-      <c r="J41" s="238"/>
-      <c r="K41" s="238"/>
-      <c r="L41" s="238"/>
-      <c r="M41" s="238"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="238"/>
+      <c r="C41" s="322"/>
+      <c r="D41" s="322"/>
+      <c r="E41" s="323"/>
+      <c r="F41" s="323"/>
+      <c r="G41" s="323"/>
+      <c r="H41" s="323"/>
+      <c r="I41" s="323"/>
+      <c r="J41" s="323"/>
+      <c r="K41" s="323"/>
+      <c r="L41" s="323"/>
+      <c r="M41" s="323"/>
+      <c r="N41" s="323"/>
+      <c r="O41" s="323"/>
       <c r="P41" s="148"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="3"/>
@@ -30002,20 +29972,20 @@
       <c r="A42" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="237"/>
-      <c r="C42" s="237"/>
-      <c r="D42" s="237"/>
-      <c r="E42" s="238"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="238"/>
-      <c r="I42" s="238"/>
-      <c r="J42" s="238"/>
-      <c r="K42" s="238"/>
-      <c r="L42" s="238"/>
-      <c r="M42" s="238"/>
-      <c r="N42" s="238"/>
-      <c r="O42" s="238"/>
+      <c r="B42" s="322"/>
+      <c r="C42" s="322"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="323"/>
+      <c r="F42" s="323"/>
+      <c r="G42" s="323"/>
+      <c r="H42" s="323"/>
+      <c r="I42" s="323"/>
+      <c r="J42" s="323"/>
+      <c r="K42" s="323"/>
+      <c r="L42" s="323"/>
+      <c r="M42" s="323"/>
+      <c r="N42" s="323"/>
+      <c r="O42" s="323"/>
       <c r="P42" s="148"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="3"/>
@@ -30023,23 +29993,23 @@
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A43" s="226" t="s">
+      <c r="A43" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="227"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="227"/>
-      <c r="M43" s="227"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="228"/>
+      <c r="B43" s="316"/>
+      <c r="C43" s="316"/>
+      <c r="D43" s="316"/>
+      <c r="E43" s="316"/>
+      <c r="F43" s="316"/>
+      <c r="G43" s="316"/>
+      <c r="H43" s="316"/>
+      <c r="I43" s="316"/>
+      <c r="J43" s="316"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="317"/>
       <c r="P43" s="150"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="3"/>
@@ -30050,26 +30020,26 @@
       <c r="A44" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="229" t="s">
+      <c r="B44" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="230"/>
-      <c r="D44" s="230"/>
-      <c r="E44" s="231"/>
+      <c r="C44" s="275"/>
+      <c r="D44" s="275"/>
+      <c r="E44" s="318"/>
       <c r="F44" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="232"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="232"/>
-      <c r="J44" s="232"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="319"/>
+      <c r="I44" s="319"/>
+      <c r="J44" s="319"/>
       <c r="K44" s="166"/>
       <c r="L44" s="165" t="s">
         <v>24</v>
       </c>
       <c r="M44" s="165"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="233"/>
+      <c r="N44" s="260"/>
+      <c r="O44" s="320"/>
       <c r="P44" s="151"/>
     </row>
     <row r="45" spans="1:20" ht="16.5">
@@ -30088,41 +30058,33 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" deleteRows="0"/>
   <mergeCells count="71">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:O34"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O37"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="H14:I14"/>
@@ -30132,33 +30094,41 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:O34"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O37"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -30194,482 +30164,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="326" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="299" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="301" t="s">
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="303" t="s">
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="304"/>
+      <c r="M2" s="181"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
     </row>
     <row r="4" spans="1:13" s="46" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="306" t="s">
+      <c r="C4" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="306" t="s">
+      <c r="D4" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="306" t="s">
+      <c r="F4" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="306" t="s">
+      <c r="G4" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="306" t="s">
+      <c r="H4" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="308" t="s">
+      <c r="J4" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="306" t="s">
+      <c r="K4" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="309" t="s">
+      <c r="L4" s="330" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="309"/>
+      <c r="M4" s="330"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="306"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="311"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="314"/>
-      <c r="K5" s="314"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A6" s="306"/>
-      <c r="B6" s="306"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="310"/>
-      <c r="F6" s="311"/>
-      <c r="G6" s="312"/>
-      <c r="H6" s="312"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="314"/>
-      <c r="K6" s="314"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="315"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="325"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="306"/>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="310"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="315"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A8" s="306"/>
-      <c r="B8" s="306"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="310"/>
-      <c r="F8" s="311"/>
-      <c r="G8" s="312"/>
-      <c r="H8" s="312"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="315"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="325"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A9" s="306"/>
-      <c r="B9" s="306"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="313"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="315"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="325"/>
+      <c r="M9" s="325"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A10" s="306"/>
-      <c r="B10" s="306"/>
-      <c r="C10" s="306"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="310"/>
-      <c r="F10" s="311"/>
-      <c r="G10" s="312"/>
-      <c r="H10" s="312"/>
-      <c r="I10" s="313"/>
-      <c r="J10" s="314"/>
-      <c r="K10" s="314"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="315"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="325"/>
+      <c r="M10" s="325"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A11" s="306"/>
-      <c r="B11" s="306"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="312"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="314"/>
-      <c r="K11" s="314"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="315"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="325"/>
+      <c r="M11" s="325"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A12" s="306"/>
-      <c r="B12" s="306"/>
-      <c r="C12" s="306"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="311"/>
-      <c r="G12" s="312"/>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="314"/>
-      <c r="K12" s="314"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="315"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="306"/>
-      <c r="B13" s="306"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="312"/>
-      <c r="H13" s="312"/>
-      <c r="I13" s="313"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="315"/>
-      <c r="M13" s="315"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A14" s="306"/>
-      <c r="B14" s="306"/>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="312"/>
-      <c r="I14" s="313"/>
-      <c r="J14" s="314"/>
-      <c r="K14" s="314"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="315"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="325"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="A15" s="306"/>
-      <c r="B15" s="306"/>
-      <c r="C15" s="306"/>
-      <c r="D15" s="306"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="312"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="313"/>
-      <c r="J15" s="314"/>
-      <c r="K15" s="314"/>
-      <c r="L15" s="315"/>
-      <c r="M15" s="315"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="306"/>
-      <c r="B16" s="306"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="310"/>
-      <c r="F16" s="311"/>
-      <c r="G16" s="312"/>
-      <c r="H16" s="312"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="314"/>
-      <c r="K16" s="314"/>
-      <c r="L16" s="315"/>
-      <c r="M16" s="315"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="325"/>
+      <c r="M16" s="325"/>
     </row>
     <row r="17" spans="1:13" ht="16.5">
-      <c r="A17" s="306"/>
-      <c r="B17" s="306"/>
-      <c r="C17" s="306"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="310"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="312"/>
-      <c r="H17" s="312"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="314"/>
-      <c r="K17" s="314"/>
-      <c r="L17" s="315"/>
-      <c r="M17" s="315"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
     </row>
     <row r="18" spans="1:13" ht="16.5">
-      <c r="A18" s="306"/>
-      <c r="B18" s="306"/>
-      <c r="C18" s="306"/>
-      <c r="D18" s="306"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="311"/>
-      <c r="G18" s="312"/>
-      <c r="H18" s="312"/>
-      <c r="I18" s="313"/>
-      <c r="J18" s="314"/>
-      <c r="K18" s="314"/>
-      <c r="L18" s="315"/>
-      <c r="M18" s="315"/>
+      <c r="A18" s="182"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="325"/>
+      <c r="M18" s="325"/>
     </row>
     <row r="19" spans="1:13" ht="16.5">
-      <c r="A19" s="306"/>
-      <c r="B19" s="306"/>
-      <c r="C19" s="306"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="310"/>
-      <c r="F19" s="311"/>
-      <c r="G19" s="312"/>
-      <c r="H19" s="312"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="315"/>
-      <c r="M19" s="315"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
     </row>
     <row r="20" spans="1:13" ht="16.5">
-      <c r="A20" s="306"/>
-      <c r="B20" s="310"/>
-      <c r="C20" s="310"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="312"/>
-      <c r="H20" s="312"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="314"/>
-      <c r="K20" s="314"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="315"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
     </row>
     <row r="21" spans="1:13" ht="16.5">
-      <c r="A21" s="306"/>
-      <c r="B21" s="310"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="310"/>
-      <c r="E21" s="310"/>
-      <c r="F21" s="311"/>
-      <c r="G21" s="312"/>
-      <c r="H21" s="312"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="314"/>
-      <c r="K21" s="314"/>
-      <c r="L21" s="315"/>
-      <c r="M21" s="315"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
     </row>
     <row r="22" spans="1:13" ht="16.5">
-      <c r="A22" s="306"/>
-      <c r="B22" s="310"/>
-      <c r="C22" s="310"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
-      <c r="F22" s="311"/>
-      <c r="G22" s="312"/>
-      <c r="H22" s="312"/>
-      <c r="I22" s="313"/>
-      <c r="J22" s="314"/>
-      <c r="K22" s="314"/>
-      <c r="L22" s="315"/>
-      <c r="M22" s="315"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="325"/>
+      <c r="M22" s="325"/>
     </row>
     <row r="23" spans="1:13" ht="16.5">
-      <c r="A23" s="316"/>
-      <c r="B23" s="316"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="316"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="317" t="s">
+      <c r="A23" s="190"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="331" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="317"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="319"/>
-      <c r="L23" s="320"/>
-      <c r="M23" s="320"/>
+      <c r="I23" s="331"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="333"/>
+      <c r="M23" s="333"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="321" t="s">
+      <c r="A24" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="321"/>
-      <c r="C24" s="321"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="321"/>
-      <c r="L24" s="321" t="s">
+      <c r="B24" s="332"/>
+      <c r="C24" s="332"/>
+      <c r="D24" s="332"/>
+      <c r="E24" s="332"/>
+      <c r="F24" s="332"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="332"/>
+      <c r="J24" s="332"/>
+      <c r="K24" s="332"/>
+      <c r="L24" s="332" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="321"/>
+      <c r="M24" s="332"/>
     </row>
     <row r="25" spans="1:13" ht="16.5">
-      <c r="A25" s="322" t="s">
+      <c r="A25" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="323"/>
-      <c r="C25" s="322" t="s">
+      <c r="B25" s="194"/>
+      <c r="C25" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="324"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="322" t="s">
+      <c r="D25" s="344"/>
+      <c r="E25" s="344"/>
+      <c r="F25" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="302" t="s">
+      <c r="G25" s="344"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="329" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="302"/>
-      <c r="K25" s="325"/>
-      <c r="L25" s="326"/>
-      <c r="M25" s="326"/>
+      <c r="J25" s="329"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="345"/>
+      <c r="M25" s="345"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="321"/>
-      <c r="B26" s="321"/>
-      <c r="C26" s="321"/>
-      <c r="D26" s="321"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="321"/>
-      <c r="I26" s="321"/>
-      <c r="J26" s="321"/>
-      <c r="K26" s="321"/>
-      <c r="L26" s="321"/>
-      <c r="M26" s="321"/>
+      <c r="A26" s="332"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="332"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="332"/>
+      <c r="K26" s="332"/>
+      <c r="L26" s="332"/>
+      <c r="M26" s="332"/>
     </row>
     <row r="27" spans="1:13" ht="22.5">
-      <c r="A27" s="327" t="s">
+      <c r="A27" s="338" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="328"/>
-      <c r="C27" s="328"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="295" t="s">
+      <c r="B27" s="339"/>
+      <c r="C27" s="339"/>
+      <c r="D27" s="340"/>
+      <c r="E27" s="341" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="296"/>
-      <c r="G27" s="296"/>
-      <c r="H27" s="296"/>
-      <c r="I27" s="296"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="296"/>
-      <c r="L27" s="296"/>
-      <c r="M27" s="296"/>
+      <c r="F27" s="342"/>
+      <c r="G27" s="342"/>
+      <c r="H27" s="342"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="342"/>
+      <c r="M27" s="342"/>
     </row>
     <row r="28" spans="1:13" ht="18">
       <c r="A28" s="85"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
-      <c r="D28" s="333"/>
-      <c r="E28" s="337"/>
-      <c r="F28" s="338" t="s">
+      <c r="D28" s="199"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="343" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="338"/>
-      <c r="H28" s="338"/>
-      <c r="I28" s="339"/>
-      <c r="J28" s="338" t="s">
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="335"/>
+      <c r="J28" s="343" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="338"/>
-      <c r="L28" s="338"/>
-      <c r="M28" s="340" t="s">
+      <c r="K28" s="343"/>
+      <c r="L28" s="343"/>
+      <c r="M28" s="204" t="s">
         <v>138</v>
       </c>
     </row>
@@ -30677,75 +30647,75 @@
       <c r="A29" s="85"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="341" t="s">
+      <c r="D29" s="199"/>
+      <c r="E29" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="342"/>
-      <c r="G29" s="342"/>
-      <c r="H29" s="342"/>
-      <c r="I29" s="343"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="344"/>
-      <c r="L29" s="344"/>
-      <c r="M29" s="339"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="334"/>
+      <c r="K29" s="334"/>
+      <c r="L29" s="334"/>
+      <c r="M29" s="335"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="85"/>
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="333"/>
-      <c r="E30" s="341" t="s">
+      <c r="D30" s="199"/>
+      <c r="E30" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="342"/>
-      <c r="G30" s="342"/>
-      <c r="H30" s="342"/>
-      <c r="I30" s="343"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="344"/>
-      <c r="L30" s="344"/>
-      <c r="M30" s="343"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="334"/>
+      <c r="K30" s="334"/>
+      <c r="L30" s="334"/>
+      <c r="M30" s="336"/>
     </row>
     <row r="31" spans="1:13" ht="16.5">
       <c r="A31" s="85"/>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
-      <c r="D31" s="334"/>
-      <c r="E31" s="345" t="s">
+      <c r="D31" s="200"/>
+      <c r="E31" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="342"/>
-      <c r="G31" s="342"/>
-      <c r="H31" s="342"/>
-      <c r="I31" s="343"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="344"/>
-      <c r="L31" s="344"/>
-      <c r="M31" s="343"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="334"/>
+      <c r="K31" s="334"/>
+      <c r="L31" s="334"/>
+      <c r="M31" s="336"/>
     </row>
     <row r="32" spans="1:13" ht="16.5">
       <c r="A32" s="85"/>
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
-      <c r="D32" s="334"/>
-      <c r="E32" s="346" t="s">
+      <c r="D32" s="200"/>
+      <c r="E32" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="342"/>
-      <c r="G32" s="342"/>
-      <c r="H32" s="342"/>
-      <c r="I32" s="347"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="344"/>
-      <c r="L32" s="344"/>
-      <c r="M32" s="347"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="337"/>
+      <c r="J32" s="334"/>
+      <c r="K32" s="334"/>
+      <c r="L32" s="334"/>
+      <c r="M32" s="337"/>
     </row>
     <row r="33" spans="1:13" ht="16.5">
       <c r="A33" s="85"/>
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
-      <c r="D33" s="334"/>
+      <c r="D33" s="200"/>
       <c r="E33" s="88"/>
       <c r="F33" s="87"/>
       <c r="G33" s="89"/>
@@ -30754,13 +30724,13 @@
       <c r="J33" s="97"/>
       <c r="K33" s="98"/>
       <c r="L33" s="98"/>
-      <c r="M33" s="356"/>
+      <c r="M33" s="214"/>
     </row>
     <row r="34" spans="1:13" s="93" customFormat="1" ht="16.5">
       <c r="A34" s="90"/>
       <c r="B34" s="91"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="335"/>
+      <c r="D34" s="201"/>
       <c r="E34" s="104"/>
       <c r="F34" s="91"/>
       <c r="G34" s="92"/>
@@ -30769,75 +30739,75 @@
       <c r="J34" s="92"/>
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
-      <c r="M34" s="357"/>
+      <c r="M34" s="215"/>
     </row>
     <row r="35" spans="1:13" s="93" customFormat="1" ht="18">
       <c r="A35" s="90"/>
       <c r="B35" s="91"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="335"/>
+      <c r="D35" s="201"/>
       <c r="E35" s="104"/>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
-      <c r="H35" s="348" t="s">
+      <c r="H35" s="346" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="348"/>
-      <c r="J35" s="348"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="348"/>
-      <c r="M35" s="358"/>
+      <c r="I35" s="346"/>
+      <c r="J35" s="346"/>
+      <c r="K35" s="346"/>
+      <c r="L35" s="346"/>
+      <c r="M35" s="216"/>
     </row>
     <row r="36" spans="1:13" s="93" customFormat="1" ht="16.5">
       <c r="A36" s="90"/>
       <c r="B36" s="91"/>
       <c r="C36" s="104"/>
-      <c r="D36" s="335"/>
+      <c r="D36" s="201"/>
       <c r="E36" s="104"/>
       <c r="F36" s="91"/>
       <c r="G36" s="99"/>
-      <c r="H36" s="349" t="s">
+      <c r="H36" s="347" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="349"/>
-      <c r="J36" s="350"/>
-      <c r="K36" s="351"/>
-      <c r="L36" s="351"/>
-      <c r="M36" s="359"/>
+      <c r="I36" s="347"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="210"/>
+      <c r="L36" s="210"/>
+      <c r="M36" s="217"/>
     </row>
     <row r="37" spans="1:13" s="93" customFormat="1" ht="16.5">
       <c r="A37" s="90"/>
       <c r="B37" s="91"/>
       <c r="C37" s="104"/>
-      <c r="D37" s="335"/>
+      <c r="D37" s="201"/>
       <c r="E37" s="104"/>
       <c r="F37" s="91"/>
       <c r="G37" s="100"/>
-      <c r="H37" s="352" t="s">
+      <c r="H37" s="348" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="352"/>
-      <c r="J37" s="353"/>
-      <c r="K37" s="353"/>
-      <c r="L37" s="354"/>
-      <c r="M37" s="359"/>
+      <c r="I37" s="348"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="217"/>
     </row>
     <row r="38" spans="1:13" s="93" customFormat="1" ht="16.5">
-      <c r="A38" s="329"/>
-      <c r="B38" s="330"/>
-      <c r="C38" s="331"/>
-      <c r="D38" s="336"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="104"/>
       <c r="F38" s="91"/>
       <c r="G38" s="100"/>
-      <c r="H38" s="338" t="s">
+      <c r="H38" s="343" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="338"/>
-      <c r="J38" s="353"/>
-      <c r="K38" s="353"/>
-      <c r="L38" s="355"/>
-      <c r="M38" s="360"/>
+      <c r="I38" s="343"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="213"/>
+      <c r="M38" s="218"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="85"/>
@@ -30852,28 +30822,28 @@
       <c r="J39" s="101"/>
       <c r="K39" s="102"/>
       <c r="L39" s="103"/>
-      <c r="M39" s="360"/>
+      <c r="M39" s="218"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="361" t="s">
+      <c r="A40" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="362"/>
-      <c r="C40" s="363"/>
-      <c r="D40" s="363"/>
-      <c r="E40" s="364"/>
-      <c r="F40" s="365" t="s">
+      <c r="B40" s="349"/>
+      <c r="C40" s="350"/>
+      <c r="D40" s="350"/>
+      <c r="E40" s="351"/>
+      <c r="F40" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="326"/>
-      <c r="H40" s="326"/>
-      <c r="I40" s="326"/>
-      <c r="J40" s="365" t="s">
+      <c r="G40" s="345"/>
+      <c r="H40" s="345"/>
+      <c r="I40" s="345"/>
+      <c r="J40" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="K40" s="326"/>
-      <c r="L40" s="326"/>
-      <c r="M40" s="326"/>
+      <c r="K40" s="345"/>
+      <c r="L40" s="345"/>
+      <c r="M40" s="345"/>
     </row>
     <row r="41" spans="1:13" ht="16.5">
       <c r="A41" s="6"/>
@@ -30934,29 +30904,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="48">
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L23:M23"/>
@@ -30973,15 +30929,29 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31025,32 +30995,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="355" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
       <c r="P1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="Q1" s="32"/>
-      <c r="R1" s="279" t="str">
+      <c r="R1" s="353" t="str">
         <f>IF(订单!G2&lt;&gt;"",订单!G2,"")</f>
         <v>订单号:</v>
       </c>
-      <c r="S1" s="280"/>
+      <c r="S1" s="354"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
@@ -31112,9 +31082,9 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="42">
+      <c r="A3" s="42" t="str">
         <f>IF(订单!A16&lt;&gt;"",订单!A16,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B3" s="43" t="str">
         <f>IF(采购!B5&lt;&gt;"",采购!B5,"")</f>
@@ -31184,9 +31154,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="42">
+      <c r="A4" s="42" t="str">
         <f>IF(订单!A17&lt;&gt;"",订单!A17,"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="B4" s="43" t="str">
         <f>IF(采购!B6&lt;&gt;"",采购!B6,"")</f>
@@ -31256,9 +31226,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="42">
+      <c r="A5" s="42" t="str">
         <f>IF(订单!A18&lt;&gt;"",订单!A18,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B5" s="43" t="str">
         <f>IF(采购!B7&lt;&gt;"",采购!B7,"")</f>
@@ -31328,9 +31298,9 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="42">
+      <c r="A6" s="42" t="str">
         <f>IF(订单!A19&lt;&gt;"",订单!A19,"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B6" s="43" t="str">
         <f>IF(采购!B8&lt;&gt;"",采购!B8,"")</f>
@@ -31400,9 +31370,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="42">
+      <c r="A7" s="42" t="str">
         <f>IF(订单!A20&lt;&gt;"",订单!A20,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="B7" s="43" t="str">
         <f>IF(采购!B9&lt;&gt;"",采购!B9,"")</f>
@@ -31472,9 +31442,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="42">
+      <c r="A8" s="42" t="str">
         <f>IF(订单!A21&lt;&gt;"",订单!A21,"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="B8" s="43" t="str">
         <f>IF(采购!B10&lt;&gt;"",采购!B10,"")</f>
@@ -31544,9 +31514,9 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="42">
+      <c r="A9" s="42" t="str">
         <f>IF(订单!A22&lt;&gt;"",订单!A22,"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="B9" s="43" t="str">
         <f>IF(采购!B11&lt;&gt;"",采购!B11,"")</f>
@@ -31616,9 +31586,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="42">
+      <c r="A10" s="42" t="str">
         <f>IF(订单!A23&lt;&gt;"",订单!A23,"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="B10" s="43" t="str">
         <f>IF(采购!B12&lt;&gt;"",采购!B12,"")</f>
@@ -31688,9 +31658,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="42">
+      <c r="A11" s="42" t="str">
         <f>IF(订单!A24&lt;&gt;"",订单!A24,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="B11" s="43" t="str">
         <f>IF(采购!B13&lt;&gt;"",采购!B13,"")</f>
@@ -31760,9 +31730,9 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="42">
+      <c r="A12" s="42" t="str">
         <f>IF(订单!A25&lt;&gt;"",订单!A25,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="B12" s="43" t="str">
         <f>IF(采购!B14&lt;&gt;"",采购!B14,"")</f>
@@ -31832,9 +31802,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="42">
+      <c r="A13" s="42" t="str">
         <f>IF(订单!A26&lt;&gt;"",订单!A26,"")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="B13" s="43" t="str">
         <f>IF(采购!B15&lt;&gt;"",采购!B15,"")</f>
@@ -31904,9 +31874,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A14" s="42">
+      <c r="A14" s="42" t="str">
         <f>IF(订单!A27&lt;&gt;"",订单!A27,"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="B14" s="43" t="str">
         <f>IF(采购!B16&lt;&gt;"",采购!B16,"")</f>
@@ -31989,22 +31959,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="278" t="s">
+      <c r="G15" s="352" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="278"/>
-      <c r="I15" s="278"/>
-      <c r="J15" s="278"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="H15" s="352"/>
+      <c r="I15" s="352"/>
+      <c r="J15" s="352"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="352"/>
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
       <c r="O15" s="39">
         <f>SUM(O3:O14)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="284"/>
+      <c r="P15" s="357"/>
+      <c r="Q15" s="358"/>
       <c r="R15" s="39">
         <f>SUM(R3:R14)</f>
         <v>0</v>
@@ -32053,32 +32023,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="363" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="291"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="365"/>
       <c r="P1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="287" t="str">
+      <c r="Q1" s="361" t="str">
         <f>IF(订单!G2&lt;&gt;"",订单!G2,"")</f>
         <v>订单号:</v>
       </c>
-      <c r="R1" s="287"/>
-      <c r="S1" s="288"/>
+      <c r="R1" s="361"/>
+      <c r="S1" s="362"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" customHeight="1">
       <c r="A2" s="170" t="s">
@@ -32140,9 +32110,9 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="41">
+      <c r="A3" s="41" t="str">
         <f>IF(订单!A16&lt;&gt;"",订单!A16,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B3" s="36" t="str">
         <f>IF(采购!B5&lt;&gt;"",采购!B5,"")</f>
@@ -32218,9 +32188,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="41">
+      <c r="A4" s="41" t="str">
         <f>IF(订单!A17&lt;&gt;"",订单!A17,"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="B4" s="36" t="str">
         <f>IF(采购!B6&lt;&gt;"",采购!B6,"")</f>
@@ -32296,9 +32266,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="41">
+      <c r="A5" s="41" t="str">
         <f>IF(订单!A18&lt;&gt;"",订单!A18,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B5" s="36" t="str">
         <f>IF(采购!B7&lt;&gt;"",采购!B7,"")</f>
@@ -32374,9 +32344,9 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="41">
+      <c r="A6" s="41" t="str">
         <f>IF(订单!A19&lt;&gt;"",订单!A19,"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B6" s="36" t="str">
         <f>IF(采购!B8&lt;&gt;"",采购!B8,"")</f>
@@ -32452,9 +32422,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="41">
+      <c r="A7" s="41" t="str">
         <f>IF(订单!A20&lt;&gt;"",订单!A20,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="B7" s="36" t="str">
         <f>IF(采购!B9&lt;&gt;"",采购!B9,"")</f>
@@ -32530,9 +32500,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="41">
+      <c r="A8" s="41" t="str">
         <f>IF(订单!A21&lt;&gt;"",订单!A21,"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="B8" s="36" t="str">
         <f>IF(采购!B10&lt;&gt;"",采购!B10,"")</f>
@@ -32608,9 +32578,9 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="41">
+      <c r="A9" s="41" t="str">
         <f>IF(订单!A22&lt;&gt;"",订单!A22,"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="B9" s="36" t="str">
         <f>IF(采购!B11&lt;&gt;"",采购!B11,"")</f>
@@ -32686,9 +32656,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="41">
+      <c r="A10" s="41" t="str">
         <f>IF(订单!A23&lt;&gt;"",订单!A23,"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="B10" s="36" t="str">
         <f>IF(采购!B12&lt;&gt;"",采购!B12,"")</f>
@@ -32764,9 +32734,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="41">
+      <c r="A11" s="41" t="str">
         <f>IF(订单!A24&lt;&gt;"",订单!A24,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="B11" s="36" t="str">
         <f>IF(采购!B13&lt;&gt;"",采购!B13,"")</f>
@@ -32842,9 +32812,9 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="41">
+      <c r="A12" s="41" t="str">
         <f>IF(订单!A25&lt;&gt;"",订单!A25,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="B12" s="36" t="str">
         <f>IF(采购!B14&lt;&gt;"",采购!B14,"")</f>
@@ -32920,9 +32890,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="41">
+      <c r="A13" s="41" t="str">
         <f>IF(订单!A26&lt;&gt;"",订单!A26,"")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="B13" s="36" t="str">
         <f>IF(采购!B15&lt;&gt;"",采购!B15,"")</f>
@@ -32998,9 +32968,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="41">
+      <c r="A14" s="41" t="str">
         <f>IF(订单!A27&lt;&gt;"",订单!A27,"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="B14" s="36" t="str">
         <f>IF(采购!B16&lt;&gt;"",采购!B16,"")</f>
@@ -33076,9 +33046,9 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="41">
+      <c r="A15" s="41" t="str">
         <f>IF(订单!A28&lt;&gt;"",订单!A28,"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="B15" s="36" t="str">
         <f>IF(采购!B17&lt;&gt;"",采购!B17,"")</f>
@@ -33154,9 +33124,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="41">
+      <c r="A16" s="41" t="str">
         <f>IF(订单!A29&lt;&gt;"",订单!A29,"")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="B16" s="36" t="str">
         <f>IF(采购!B18&lt;&gt;"",采购!B18,"")</f>
@@ -33232,9 +33202,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="41">
+      <c r="A17" s="41" t="str">
         <f>IF(订单!A30&lt;&gt;"",订单!A30,"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="B17" s="36" t="str">
         <f>IF(采购!B19&lt;&gt;"",采购!B19,"")</f>
@@ -33323,13 +33293,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="53"/>
-      <c r="G18" s="285" t="s">
+      <c r="G18" s="359" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="286"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="286"/>
+      <c r="H18" s="360"/>
+      <c r="I18" s="360"/>
+      <c r="J18" s="360"/>
+      <c r="K18" s="360"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
@@ -33341,32 +33311,32 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A21" s="289" t="s">
+      <c r="A21" s="363" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="290"/>
-      <c r="L21" s="290"/>
-      <c r="M21" s="290"/>
-      <c r="N21" s="290"/>
-      <c r="O21" s="291"/>
+      <c r="B21" s="364"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="364"/>
+      <c r="G21" s="364"/>
+      <c r="H21" s="364"/>
+      <c r="I21" s="364"/>
+      <c r="J21" s="364"/>
+      <c r="K21" s="364"/>
+      <c r="L21" s="364"/>
+      <c r="M21" s="364"/>
+      <c r="N21" s="364"/>
+      <c r="O21" s="365"/>
       <c r="P21" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" s="287" t="str">
+      <c r="Q21" s="361" t="str">
         <f>IF(订单!G2&lt;&gt;"",订单!G2,"")</f>
         <v>订单号:</v>
       </c>
-      <c r="R21" s="287"/>
-      <c r="S21" s="288"/>
+      <c r="R21" s="361"/>
+      <c r="S21" s="362"/>
     </row>
     <row r="22" spans="1:19" ht="33.75">
       <c r="A22" s="50" t="s">
@@ -33428,9 +33398,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="41">
+      <c r="A23" s="41" t="str">
         <f>IF(订单!A16&lt;&gt;"",订单!A16,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B23" s="36" t="str">
         <f>IF(采购!B5&lt;&gt;"",采购!B5,"")</f>
@@ -33506,9 +33476,9 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="41">
+      <c r="A24" s="41" t="str">
         <f>IF(订单!A17&lt;&gt;"",订单!A17,"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="B24" s="36" t="str">
         <f>IF(采购!B6&lt;&gt;"",采购!B6,"")</f>
@@ -33584,9 +33554,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="41">
+      <c r="A25" s="41" t="str">
         <f>IF(订单!A18&lt;&gt;"",订单!A18,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B25" s="36" t="str">
         <f>IF(采购!B7&lt;&gt;"",采购!B7,"")</f>
@@ -33662,9 +33632,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="41">
+      <c r="A26" s="41" t="str">
         <f>IF(订单!A19&lt;&gt;"",订单!A19,"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B26" s="36" t="str">
         <f>IF(采购!B8&lt;&gt;"",采购!B8,"")</f>
@@ -33740,9 +33710,9 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="41">
+      <c r="A27" s="41" t="str">
         <f>IF(订单!A20&lt;&gt;"",订单!A20,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="B27" s="36" t="str">
         <f>IF(采购!B9&lt;&gt;"",采购!B9,"")</f>
@@ -33818,9 +33788,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="41">
+      <c r="A28" s="41" t="str">
         <f>IF(订单!A21&lt;&gt;"",订单!A21,"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="B28" s="36" t="str">
         <f>IF(采购!B10&lt;&gt;"",采购!B10,"")</f>
@@ -33896,9 +33866,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="41">
+      <c r="A29" s="41" t="str">
         <f>IF(订单!A22&lt;&gt;"",订单!A22,"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="B29" s="36" t="str">
         <f>IF(采购!B11&lt;&gt;"",采购!B11,"")</f>
@@ -33974,9 +33944,9 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="41">
+      <c r="A30" s="41" t="str">
         <f>IF(订单!A23&lt;&gt;"",订单!A23,"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="B30" s="36" t="str">
         <f>IF(采购!B12&lt;&gt;"",采购!B12,"")</f>
@@ -34052,9 +34022,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="41">
+      <c r="A31" s="41" t="str">
         <f>IF(订单!A24&lt;&gt;"",订单!A24,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="B31" s="36" t="str">
         <f>IF(采购!B13&lt;&gt;"",采购!B13,"")</f>
@@ -34130,9 +34100,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="41">
+      <c r="A32" s="41" t="str">
         <f>IF(订单!A25&lt;&gt;"",订单!A25,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="B32" s="36" t="str">
         <f>IF(采购!B14&lt;&gt;"",采购!B14,"")</f>
@@ -34208,9 +34178,9 @@
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="41">
+      <c r="A33" s="41" t="str">
         <f>IF(订单!A26&lt;&gt;"",订单!A26,"")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="B33" s="36" t="str">
         <f>IF(采购!B15&lt;&gt;"",采购!B15,"")</f>
@@ -34286,9 +34256,9 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="41">
+      <c r="A34" s="41" t="str">
         <f>IF(订单!A27&lt;&gt;"",订单!A27,"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="B34" s="36" t="str">
         <f>IF(采购!B16&lt;&gt;"",采购!B16,"")</f>
@@ -34364,9 +34334,9 @@
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="41">
+      <c r="A35" s="41" t="str">
         <f>IF(订单!A28&lt;&gt;"",订单!A28,"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="B35" s="36" t="str">
         <f>IF(采购!B17&lt;&gt;"",采购!B17,"")</f>
@@ -34442,9 +34412,9 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="41">
+      <c r="A36" s="41" t="str">
         <f>IF(订单!A29&lt;&gt;"",订单!A29,"")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="B36" s="36" t="str">
         <f>IF(采购!B18&lt;&gt;"",采购!B18,"")</f>
@@ -34520,9 +34490,9 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="41">
+      <c r="A37" s="41" t="str">
         <f>IF(订单!A30&lt;&gt;"",订单!A30,"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="B37" s="36" t="str">
         <f>IF(采购!B19&lt;&gt;"",采购!B19,"")</f>
@@ -34611,11 +34581,11 @@
         <v>3</v>
       </c>
       <c r="F38" s="53"/>
-      <c r="G38" s="286" t="s">
+      <c r="G38" s="360" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="286"/>
-      <c r="I38" s="286"/>
+      <c r="H38" s="360"/>
+      <c r="I38" s="360"/>
       <c r="J38" s="54"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
